--- a/assets/whiskey_scores_data.xlsx
+++ b/assets/whiskey_scores_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Työpöytä\Programming projects\alko_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9A9D6-FDF2-4618-BF20-2C426D4E70D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CDFC9-AC66-48C9-A256-CDE13FE12254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1834">
   <si>
     <t>Whiskey</t>
   </si>
@@ -5153,6 +5153,375 @@
   </si>
   <si>
     <t>filmwhiskey.com</t>
+  </si>
+  <si>
+    <t>liquor.com</t>
+  </si>
+  <si>
+    <t>breakingbourbon.com</t>
+  </si>
+  <si>
+    <t>balcohols.com</t>
+  </si>
+  <si>
+    <t>Black Velvet muovipullo</t>
+  </si>
+  <si>
+    <t>Cutty Sark Prohibition Edition</t>
+  </si>
+  <si>
+    <t>Jameson muovipullo</t>
+  </si>
+  <si>
+    <t>The Famous Grouse Smoky Black</t>
+  </si>
+  <si>
+    <t>Four Roses</t>
+  </si>
+  <si>
+    <t>Dewar's Caribbean Smooth Aged 8 Years</t>
+  </si>
+  <si>
+    <t>The Famous Grouse Sherry Cask Finish</t>
+  </si>
+  <si>
+    <t>The Whistler Triple Oak</t>
+  </si>
+  <si>
+    <t>The Busker Triple Cask Triple Smooth</t>
+  </si>
+  <si>
+    <t>Powers Irish Rye</t>
+  </si>
+  <si>
+    <t>Spey River Bourbon Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Glen Moray Peated Single Malt</t>
+  </si>
+  <si>
+    <t>Glen Moray Port Cask Finish Single Malt</t>
+  </si>
+  <si>
+    <t>Glen Moray Sherry Cask Finish Single Malt</t>
+  </si>
+  <si>
+    <t>Grant's Family Reserve</t>
+  </si>
+  <si>
+    <t>Tamnavulin Sherry Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Islay Mist Mufloni Stout Cask Finish</t>
+  </si>
+  <si>
+    <t>Wild Turkey 101</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Old No. 7</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Old No. 7 muovipullo</t>
+  </si>
+  <si>
+    <t>Loch Lomond Original Single Malt</t>
+  </si>
+  <si>
+    <t>Bowsaw Small Batch Straight Corn American Whiskey</t>
+  </si>
+  <si>
+    <t>Hamiltons Highland Single Malt</t>
+  </si>
+  <si>
+    <t>Maker's Mark</t>
+  </si>
+  <si>
+    <t>Tamnavulin White Wine Cask Finish Single Malt</t>
+  </si>
+  <si>
+    <t>Jura Red Wine Cask Finish Single Malt</t>
+  </si>
+  <si>
+    <t>Tamnavulin German Pinot Noir Cask Finish Single Malt</t>
+  </si>
+  <si>
+    <t>The Singleton 12 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>The Epicurean Blended Malt</t>
+  </si>
+  <si>
+    <t>Glen Moray Elgin Classic Single Malt</t>
+  </si>
+  <si>
+    <t>Ragtime Rye</t>
+  </si>
+  <si>
+    <t>Smokey Joe Islay Blended Malt</t>
+  </si>
+  <si>
+    <t>The Quiet Man</t>
+  </si>
+  <si>
+    <t>Rittenhouse Straight Rye Whiskey</t>
+  </si>
+  <si>
+    <t>The Dead Rabbit</t>
+  </si>
+  <si>
+    <t>MacLean's Nose</t>
+  </si>
+  <si>
+    <t>The Glenlivet Founder's Reserve Single Malt</t>
+  </si>
+  <si>
+    <t>The Legendary Silkie Irish Whiskey</t>
+  </si>
+  <si>
+    <t>Smoky Scot Islay Single Malt</t>
+  </si>
+  <si>
+    <t>Mossburn Speyside Blended Malt</t>
+  </si>
+  <si>
+    <t>Proclamation</t>
+  </si>
+  <si>
+    <t>Johnnie Walker Black Label 12 Year Old</t>
+  </si>
+  <si>
+    <t>Naked Malt</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Bonded</t>
+  </si>
+  <si>
+    <t>Powers Three Swallow Single Pot Still</t>
+  </si>
+  <si>
+    <t>Monkey Shoulder Blended Malt</t>
+  </si>
+  <si>
+    <t>Chivas Regal 12 Years Old</t>
+  </si>
+  <si>
+    <t>Glenmorangie X Single Malt</t>
+  </si>
+  <si>
+    <t>Knob Creek Small Batch Bourbon</t>
+  </si>
+  <si>
+    <t>BlueWhite Lightly Peated</t>
+  </si>
+  <si>
+    <t>Legendary Dark Silkie Smoky Irish Whiskey</t>
+  </si>
+  <si>
+    <t>Redemption Bourbon</t>
+  </si>
+  <si>
+    <t>Nikka Days</t>
+  </si>
+  <si>
+    <t>Starward Left-Field Single Malt</t>
+  </si>
+  <si>
+    <t>Glen Moray Elgin Heritage 12 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>The Deacon</t>
+  </si>
+  <si>
+    <t>Scarabus Batch Strength Single Malt</t>
+  </si>
+  <si>
+    <t>Hinch Small Batch</t>
+  </si>
+  <si>
+    <t>Glen Scotia Campbeltown Harbour Single Malt</t>
+  </si>
+  <si>
+    <t>Laphroaig Select Single Malt</t>
+  </si>
+  <si>
+    <t>Talisker Storm Single Malt</t>
+  </si>
+  <si>
+    <t>Glen Garioch 1797 Founder's Reserve</t>
+  </si>
+  <si>
+    <t>Glendalough Single Cask Madeira Finish</t>
+  </si>
+  <si>
+    <t>Glendalough Single Cask Burgundy Finish</t>
+  </si>
+  <si>
+    <t>Ardbeg Wee Beastie Single Malt</t>
+  </si>
+  <si>
+    <t>Knob Creek Small Batch Rye</t>
+  </si>
+  <si>
+    <t>Speyburn 10 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>Abasolo Corn Whisky</t>
+  </si>
+  <si>
+    <t>Compass Box Great King St Glasgow Blend</t>
+  </si>
+  <si>
+    <t>Teeling Cask Strength Pot Still</t>
+  </si>
+  <si>
+    <t>Agitator Single Malt Whisky Rök</t>
+  </si>
+  <si>
+    <t>Peat's Beast Single Malt</t>
+  </si>
+  <si>
+    <t>Yellow Rose Premium American</t>
+  </si>
+  <si>
+    <t>BlueWhite Pääesiintyjät</t>
+  </si>
+  <si>
+    <t>Woven Superblend</t>
+  </si>
+  <si>
+    <t>Talisker 10 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>Tomintoul 10 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>Woodford Reserve Distiller's Select Rye</t>
+  </si>
+  <si>
+    <t>Pointe Blanche Single Malt</t>
+  </si>
+  <si>
+    <t>The English Smokey Single Malt</t>
+  </si>
+  <si>
+    <t>Hatozaki Pure Malt</t>
+  </si>
+  <si>
+    <t>Jameson Single Pot Still</t>
+  </si>
+  <si>
+    <t>Micil Earls Island Single Pot Still</t>
+  </si>
+  <si>
+    <t>Lindores MCDXCIV Lowland Single Malt</t>
+  </si>
+  <si>
+    <t>Compass Box Orchard House Blended Malt</t>
+  </si>
+  <si>
+    <t>Arran Sherry Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Laphroaig Quarter Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Dingle Single Malt</t>
+  </si>
+  <si>
+    <t>Stauning Floor Malted Rye</t>
+  </si>
+  <si>
+    <t>Spirit of Raskasta Joulua</t>
+  </si>
+  <si>
+    <t>Yellow Rose Rye</t>
+  </si>
+  <si>
+    <t>Woodford Reserve Distiller's Select</t>
+  </si>
+  <si>
+    <t>Glenmorangie The Original 12 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>Peat's Beast PX Sherry Finish Batch Strength Single Malt</t>
+  </si>
+  <si>
+    <t>The English Small Batch Rum Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Johnnie Walker Green Label 15 Year Old Blended Malt</t>
+  </si>
+  <si>
+    <t>Maker's Mark Cask Strength</t>
+  </si>
+  <si>
+    <t>Yellowstone Select</t>
+  </si>
+  <si>
+    <t>Teeling Blackpitts Peated Single Malt</t>
+  </si>
+  <si>
+    <t>Lindores Casks of Lindores II Bourbon Lowland Single Malt</t>
+  </si>
+  <si>
+    <t>Kyrö’s Choice SVP 2025 Wood Smoke Single Vintage 2019</t>
+  </si>
+  <si>
+    <t>Angel's Envy</t>
+  </si>
+  <si>
+    <t>London Square 12 Year Old</t>
+  </si>
+  <si>
+    <t>Glen Scotia Double Cask Single Malt</t>
+  </si>
+  <si>
+    <t>Glenrothes 10 Year Old 2014 Signatory Vintage Single Malt</t>
+  </si>
+  <si>
+    <t>Stauning Smooth &amp; Delicate Double Malt Høst</t>
+  </si>
+  <si>
+    <t>Torabhaig Legacy Allt Gleann Single Malt</t>
+  </si>
+  <si>
+    <t>Tobermory 12 Year Old Single Malt</t>
+  </si>
+  <si>
+    <t>Smokehead Single Malt</t>
+  </si>
+  <si>
+    <t>Compass Box The Spice Tree Blended Malt</t>
+  </si>
+  <si>
+    <t>Kilchoman Machir Bay Single Malt</t>
+  </si>
+  <si>
+    <t>Kingsbarns Dream to Dram Lowland Single Malt</t>
+  </si>
+  <si>
+    <t>Penderyn Rich Oak Single Malt</t>
+  </si>
+  <si>
+    <t>The Whistler P.X. I Love You Single Malt</t>
+  </si>
+  <si>
+    <t>masterofmalt.com</t>
+  </si>
+  <si>
+    <t>reddit.com/r/bourbon</t>
+  </si>
+  <si>
+    <t>reddit.com/r/irishwhiskey</t>
+  </si>
+  <si>
+    <t>reddit.com/r/worldwhisky</t>
+  </si>
+  <si>
+    <t>whiskynotes.be</t>
+  </si>
+  <si>
+    <t>reddit.com/r/scotch</t>
   </si>
 </sst>
 </file>
@@ -5554,15 +5923,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1704"/>
+  <dimension ref="A1:E1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1647" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1660" sqref="D1660"/>
+    <sheetView tabSelected="1" topLeftCell="A1737" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1749" sqref="B1749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
@@ -28888,126 +29257,351 @@
       <c r="A1666" t="s">
         <v>1667</v>
       </c>
+      <c r="B1666">
+        <v>71.44</v>
+      </c>
+      <c r="C1666">
+        <v>11</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
         <v>1668</v>
       </c>
+      <c r="B1667">
+        <v>60</v>
+      </c>
+      <c r="C1667">
+        <v>1</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>1711</v>
+      </c>
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
         <v>1669</v>
       </c>
+      <c r="B1668">
+        <v>79.94</v>
+      </c>
+      <c r="C1668">
+        <v>81</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
         <v>1653</v>
       </c>
+      <c r="B1669">
+        <v>69</v>
+      </c>
+      <c r="C1669">
+        <v>1</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
         <v>1670</v>
       </c>
+      <c r="B1670">
+        <v>72</v>
+      </c>
+      <c r="C1670">
+        <v>73</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
         <v>1671</v>
       </c>
+      <c r="B1671">
+        <v>81.75</v>
+      </c>
+      <c r="C1671">
+        <v>4</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
         <v>1672</v>
       </c>
+      <c r="B1672">
+        <v>73</v>
+      </c>
+      <c r="C1672">
+        <v>1</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
         <v>1673</v>
       </c>
+      <c r="B1673">
+        <v>30</v>
+      </c>
+      <c r="C1673">
+        <v>1</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
         <v>1674</v>
       </c>
+      <c r="B1674">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="C1674">
+        <v>64</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
         <v>1675</v>
       </c>
+      <c r="B1675">
+        <v>77.69</v>
+      </c>
+      <c r="C1675">
+        <v>18</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
         <v>1676</v>
       </c>
+      <c r="B1676">
+        <v>67</v>
+      </c>
+      <c r="C1676">
+        <v>1</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
         <v>1677</v>
       </c>
+      <c r="B1677">
+        <v>64.62</v>
+      </c>
+      <c r="C1677">
+        <v>91</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
         <v>1678</v>
       </c>
+      <c r="B1678">
+        <v>74</v>
+      </c>
+      <c r="C1678">
+        <v>1</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
         <v>1679</v>
       </c>
+      <c r="B1679">
+        <v>63</v>
+      </c>
+      <c r="C1679">
+        <v>2</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
         <v>1680</v>
       </c>
+      <c r="B1680">
+        <v>74</v>
+      </c>
+      <c r="C1680">
+        <v>1</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
         <v>1681</v>
       </c>
+      <c r="B1681">
+        <v>73</v>
+      </c>
+      <c r="C1681">
+        <v>1</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
         <v>1682</v>
       </c>
+      <c r="B1682">
+        <v>76.45</v>
+      </c>
+      <c r="C1682">
+        <v>46</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
         <v>1683</v>
       </c>
+      <c r="B1683">
+        <v>74.37</v>
+      </c>
+      <c r="C1683">
+        <v>45</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
         <v>1602</v>
       </c>
+      <c r="B1684">
+        <v>67.56</v>
+      </c>
+      <c r="C1684">
+        <v>43</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
         <v>1684</v>
       </c>
+      <c r="B1685">
+        <v>73</v>
+      </c>
+      <c r="C1685">
+        <v>1</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
         <v>1685</v>
       </c>
+      <c r="B1686">
+        <v>77</v>
+      </c>
+      <c r="C1686">
+        <v>1</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
         <v>1686</v>
       </c>
+      <c r="B1687">
+        <v>69.37</v>
+      </c>
+      <c r="C1687">
+        <v>93</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
         <v>1688</v>
       </c>
+      <c r="B1688">
+        <v>69.86</v>
+      </c>
+      <c r="C1688">
+        <v>336</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
         <v>1687</v>
       </c>
+      <c r="B1689">
+        <v>74.38</v>
+      </c>
+      <c r="C1689">
+        <v>18</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
         <v>1689</v>
       </c>
+      <c r="B1690">
+        <v>77.2</v>
+      </c>
+      <c r="C1690">
+        <v>66</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
@@ -29055,41 +29649,113 @@
       <c r="A1694" t="s">
         <v>1693</v>
       </c>
+      <c r="B1694">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="C1694">
+        <v>51</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
         <v>1694</v>
       </c>
+      <c r="B1695">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="C1695">
+        <v>278</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
         <v>1640</v>
       </c>
+      <c r="B1696">
+        <v>73.53</v>
+      </c>
+      <c r="C1696">
+        <v>95</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>1695</v>
       </c>
+      <c r="B1697">
+        <v>67.56</v>
+      </c>
+      <c r="C1697">
+        <v>43</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>1696</v>
       </c>
+      <c r="B1698">
+        <v>50</v>
+      </c>
+      <c r="C1698">
+        <v>1</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>1697</v>
       </c>
+      <c r="B1699">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="C1699">
+        <v>33</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>1698</v>
       </c>
+      <c r="B1700">
+        <v>60</v>
+      </c>
+      <c r="C1700">
+        <v>1</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>1699</v>
       </c>
+      <c r="B1701">
+        <v>87</v>
+      </c>
+      <c r="C1701">
+        <v>1</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
@@ -29131,6 +29797,977 @@
       </c>
       <c r="D1704" t="s">
         <v>1706</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1705">
+        <v>60</v>
+      </c>
+      <c r="C1705">
+        <v>1</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1706">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="C1706">
+        <v>287</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1707">
+        <v>76</v>
+      </c>
+      <c r="C1707">
+        <v>1</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1708">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="C1708">
+        <v>37</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1709">
+        <v>72.72</v>
+      </c>
+      <c r="C1709">
+        <v>294</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1710">
+        <v>75.3</v>
+      </c>
+      <c r="C1710">
+        <v>151</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1711">
+        <v>79.88</v>
+      </c>
+      <c r="C1711">
+        <v>29</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1712">
+        <v>83.5</v>
+      </c>
+      <c r="C1712">
+        <v>2</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1713">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="C1713">
+        <v>44</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1714">
+        <v>83.44</v>
+      </c>
+      <c r="C1714">
+        <v>20</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1715">
+        <v>77</v>
+      </c>
+      <c r="C1715">
+        <v>1</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1716">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="C1716">
+        <v>294</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1717">
+        <v>80</v>
+      </c>
+      <c r="C1717">
+        <v>18</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1718">
+        <v>79.13</v>
+      </c>
+      <c r="C1718">
+        <v>285</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1719">
+        <v>66.34</v>
+      </c>
+      <c r="C1719">
+        <v>207</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1720">
+        <v>80.98</v>
+      </c>
+      <c r="C1720">
+        <v>569</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1721">
+        <v>79.75</v>
+      </c>
+      <c r="C1721">
+        <v>6</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1722">
+        <v>86.06</v>
+      </c>
+      <c r="C1722">
+        <v>275</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1723">
+        <v>66.78</v>
+      </c>
+      <c r="C1723">
+        <v>944</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1724">
+        <v>66.78</v>
+      </c>
+      <c r="C1724">
+        <v>944</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1725">
+        <v>76.78</v>
+      </c>
+      <c r="C1725">
+        <v>241</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1726">
+        <v>78</v>
+      </c>
+      <c r="C1726">
+        <v>17</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1727">
+        <v>74.2</v>
+      </c>
+      <c r="C1727">
+        <v>9</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1728">
+        <v>50</v>
+      </c>
+      <c r="C1728">
+        <v>1</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1729">
+        <v>81.69</v>
+      </c>
+      <c r="C1729">
+        <v>118</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1730">
+        <v>80.14</v>
+      </c>
+      <c r="C1730">
+        <v>189</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1731">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="C1731">
+        <v>130</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1732">
+        <v>79.16</v>
+      </c>
+      <c r="C1732">
+        <v>519</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1733">
+        <v>82</v>
+      </c>
+      <c r="C1733">
+        <v>11</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1734">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="C1734">
+        <v>294</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1735">
+        <v>80</v>
+      </c>
+      <c r="C1735">
+        <v>1</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1736">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="C1736">
+        <v>138</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1737">
+        <v>86</v>
+      </c>
+      <c r="C1737">
+        <v>1</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1738">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="C1738">
+        <v>356</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1739">
+        <v>74</v>
+      </c>
+      <c r="C1739">
+        <v>1</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1740">
+        <v>84</v>
+      </c>
+      <c r="C1740">
+        <v>385</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1741">
+        <v>75.12</v>
+      </c>
+      <c r="C1741">
+        <v>793</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1742">
+        <v>71</v>
+      </c>
+      <c r="C1742">
+        <v>1</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1743">
+        <v>83.34</v>
+      </c>
+      <c r="C1743">
+        <v>164</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1744">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C1744">
+        <v>143</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1745">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="C1745">
+        <v>24</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1746">
+        <v>75.81</v>
+      </c>
+      <c r="C1746">
+        <v>928</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1747">
+        <v>80</v>
+      </c>
+      <c r="C1747">
+        <v>1</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1748">
+        <v>82.3</v>
+      </c>
+      <c r="C1748">
+        <v>82</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>1827</v>
       </c>
     </row>
   </sheetData>
